--- a/2. Etiquetas-y-Colores-2.xlsx.xlsx
+++ b/2. Etiquetas-y-Colores-2.xlsx.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Miguel Maraby\Video Cursos\Excel 2017\Producción\Excel y Word\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PAUL\Downloads\Materiales-Para-Descargar\Curso_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58793F36-B696-4D44-A5AB-1A939996F8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{68340D43-FDA6-4232-A20A-5D2A559302FA}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{68340D43-FDA6-4232-A20A-5D2A559302FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Familias" sheetId="1" r:id="rId1"/>
@@ -61,10 +62,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;S/&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +90,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <strike/>
+      <u/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -120,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -130,6 +142,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -452,17 +470,17 @@
   <dimension ref="B2:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="3" width="11.42578125" style="3"/>
-    <col min="4" max="4" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="3" width="11.3984375" style="3"/>
+    <col min="4" max="4" width="12.73046875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.3984375" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -473,8 +491,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="3">
@@ -484,8 +502,8 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3">
@@ -495,19 +513,19 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="5">
         <v>9000</v>
       </c>
       <c r="D5" s="4">
         <v>80000</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="3">
@@ -517,8 +535,8 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="3">
@@ -528,8 +546,8 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="3">
@@ -539,7 +557,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B11" s="2" t="s">
         <v>0</v>
       </c>
@@ -550,8 +568,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B12" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="3">
@@ -561,8 +579,8 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B13" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="3">
@@ -572,8 +590,8 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B14" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="3">
@@ -583,8 +601,8 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B15" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="3">
@@ -594,8 +612,8 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B16" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="3">
@@ -605,8 +623,8 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B17" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="3">
@@ -633,7 +651,7 @@
       <selection activeCell="B2" sqref="B2:D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -651,7 +669,7 @@
       <selection activeCell="B2" sqref="B2:D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -669,9 +687,9 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="16384" width="11.3984375" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
